--- a/httpget/List File.xlsx
+++ b/httpget/List File.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://valentinslr-my.sharepoint.com/personal/hello_valentinslr_com/Documents/Documents/GitHub/script-nsg/httpget/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valen\git\script-nsg\httpget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="13_ncr:1_{D894E5D9-125F-427A-8D95-FE59EEB2AFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{551459F2-B13C-44F7-968F-BD4F9D857651}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C690B0CE-0A75-4F2F-A76A-9D3169BED32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{DC6502BA-425D-411E-B718-7BD70301C676}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="297">
   <si>
     <t>Country</t>
   </si>
@@ -909,6 +909,24 @@
   </si>
   <si>
     <t>SRR (SFR Réunion)_10Gbps_FR.xml</t>
+  </si>
+  <si>
+    <t>Vultr (1Gbps, London, UK).xml</t>
+  </si>
+  <si>
+    <t>Vultr (London)</t>
+  </si>
+  <si>
+    <t>Vultr (Manchester)</t>
+  </si>
+  <si>
+    <t>Vultr (1Gbps, Manchester, UK).xml</t>
+  </si>
+  <si>
+    <t>Vultr Paris</t>
+  </si>
+  <si>
+    <t>Vultr (1Gbps, Paris, FR).xml</t>
   </si>
 </sst>
 </file>
@@ -1233,10 +1251,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.8666666666666667</c:v>
+                  <c:v>0.84552845528455289</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13333333333333333</c:v>
+                  <c:v>0.15447154471544716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2362,10 +2380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C18607A-68F6-4C8B-BF40-82CCB3747CF3}">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2395,7 +2413,7 @@
       </c>
       <c r="H1" s="1">
         <f>COUNTIF(E:E,"Yes")/SUM(COUNTIF(E:E,"Yes"),COUNTIF(E:E,"No"))</f>
-        <v>0.8666666666666667</v>
+        <v>0.84552845528455289</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2419,7 +2437,7 @@
       </c>
       <c r="H2" s="1">
         <f>COUNTIF(E:E,"No")/SUM(COUNTIF(E:E,"Yes"),COUNTIF(E:E,"No"))</f>
-        <v>0.13333333333333333</v>
+        <v>0.15447154471544716</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3752,19 +3770,19 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>18</v>
+        <v>295</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>19</v>
+        <v>296</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -3772,13 +3790,13 @@
         <v>17</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>224</v>
+        <v>19</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>14</v>
@@ -3789,13 +3807,13 @@
         <v>17</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>230</v>
+        <v>26</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>14</v>
@@ -3806,13 +3824,13 @@
         <v>17</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>14</v>
@@ -3823,13 +3841,13 @@
         <v>17</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>14</v>
@@ -3840,13 +3858,13 @@
         <v>17</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>167</v>
+        <v>232</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>168</v>
+        <v>235</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>14</v>
@@ -3854,16 +3872,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>14</v>
@@ -3871,50 +3889,50 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>61</v>
+        <v>292</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>63</v>
+        <v>291</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>227</v>
+        <v>17</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>228</v>
+        <v>293</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>229</v>
+        <v>68</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>227</v>
+        <v>162</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>249</v>
+        <v>163</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>250</v>
+      <c r="D90" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>14</v>
@@ -3922,16 +3940,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>239</v>
+        <v>60</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>240</v>
+        <v>61</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>241</v>
+        <v>62</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>14</v>
@@ -3939,16 +3957,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>208</v>
+        <v>62</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>14</v>
@@ -3956,16 +3974,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>136</v>
+        <v>227</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>137</v>
+        <v>249</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>138</v>
+      <c r="D93" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>14</v>
@@ -3973,16 +3991,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>139</v>
+        <v>240</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>140</v>
+        <v>68</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>14</v>
@@ -3990,16 +4008,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>98</v>
+        <v>206</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>99</v>
+        <v>207</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>14</v>
@@ -4007,50 +4025,50 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>278</v>
+        <v>136</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>279</v>
+        <v>137</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>280</v>
+        <v>138</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>263</v>
+        <v>136</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>262</v>
+        <v>139</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>281</v>
+        <v>140</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>14</v>
@@ -4058,50 +4076,50 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>10</v>
+        <v>278</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>9</v>
+        <v>279</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>8</v>
+        <v>280</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>10</v>
+        <v>263</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>101</v>
+        <v>262</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>102</v>
+        <v>281</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>14</v>
@@ -4112,13 +4130,13 @@
         <v>10</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>182</v>
+        <v>9</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>183</v>
+        <v>8</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>14</v>
@@ -4126,16 +4144,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>14</v>
@@ -4143,16 +4161,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>14</v>
@@ -4160,16 +4178,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>14</v>
@@ -4180,13 +4198,13 @@
         <v>22</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>211</v>
+        <v>35</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>212</v>
+        <v>36</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>14</v>
@@ -4194,16 +4212,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>14</v>
@@ -4211,16 +4229,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>14</v>
@@ -4228,16 +4246,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>14</v>
@@ -4245,16 +4263,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>14</v>
@@ -4262,16 +4280,16 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>14</v>
@@ -4279,16 +4297,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>29</v>
+        <v>213</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>30</v>
+        <v>214</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>14</v>
@@ -4296,16 +4314,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>14</v>
@@ -4313,16 +4331,16 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>14</v>
@@ -4333,13 +4351,13 @@
         <v>28</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>236</v>
+        <v>29</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>237</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>238</v>
+        <v>30</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>14</v>
@@ -4350,13 +4368,13 @@
         <v>28</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>14</v>
@@ -4367,13 +4385,13 @@
         <v>28</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>171</v>
+        <v>85</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>14</v>
@@ -4381,16 +4399,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>27</v>
+        <v>237</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>14</v>
@@ -4398,16 +4416,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>14</v>
@@ -4415,16 +4433,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>72</v>
+        <v>171</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>14</v>
@@ -4435,15 +4453,66 @@
         <v>57</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>94</v>
+        <v>225</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="E124" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/httpget/List File.xlsx
+++ b/httpget/List File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valen\git\script-nsg\httpget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C690B0CE-0A75-4F2F-A76A-9D3169BED32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32EA29B-9A5A-42B0-91A7-2476963FDAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{DC6502BA-425D-411E-B718-7BD70301C676}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="357">
   <si>
     <t>Country</t>
   </si>
@@ -927,6 +927,186 @@
   </si>
   <si>
     <t>Vultr (1Gbps, Paris, FR).xml</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>G-Core AE</t>
+  </si>
+  <si>
+    <t>G-Core AE_10Gbps_AE.xml</t>
+  </si>
+  <si>
+    <t>G-Core AR</t>
+  </si>
+  <si>
+    <t>G-Core AR_10Gbps_AR.xml</t>
+  </si>
+  <si>
+    <t>G-Core AU</t>
+  </si>
+  <si>
+    <t>G-Core AU_10Gbps_AU.xml</t>
+  </si>
+  <si>
+    <t>G-Core</t>
+  </si>
+  <si>
+    <t>G-Core BR_10Gbps_BR.xml</t>
+  </si>
+  <si>
+    <t>G-Core DE</t>
+  </si>
+  <si>
+    <t>G-Core DE_10Gbps_DE.xml</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>G-Core EG</t>
+  </si>
+  <si>
+    <t>G-Core EG_10Gbps_EG.xml</t>
+  </si>
+  <si>
+    <t>G-Core FR_10Gbps_FR.xml</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>G-Core HK</t>
+  </si>
+  <si>
+    <t>G-Core HK_10Gbps_HK.xml</t>
+  </si>
+  <si>
+    <t>G-Core IN</t>
+  </si>
+  <si>
+    <t>G-Core IN_10Gbps_IN.xml</t>
+  </si>
+  <si>
+    <t>G-Core JP</t>
+  </si>
+  <si>
+    <t>G-Core JP_10Gbps_JP.xml</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>G-Core KR</t>
+  </si>
+  <si>
+    <t>G-Core KR_10Gbps_KR.xml</t>
+  </si>
+  <si>
+    <t>KZ</t>
+  </si>
+  <si>
+    <t>G-Core KZ</t>
+  </si>
+  <si>
+    <t>G-Core KZ_10Gbps_KZ.xml</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>G-Core MX</t>
+  </si>
+  <si>
+    <t>G-Core MX_10Gbps_MX.xml</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>G-Core NG</t>
+  </si>
+  <si>
+    <t>G-Core NG_10Gbps_NG.xml</t>
+  </si>
+  <si>
+    <t>G-Core NL</t>
+  </si>
+  <si>
+    <t>G-Core NL_10Gbps_NL.xml</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>G-Core PL</t>
+  </si>
+  <si>
+    <t>G-Core PL_10Gbps_PL.xml</t>
+  </si>
+  <si>
+    <t>G-Core SG</t>
+  </si>
+  <si>
+    <t>G-Core SG_10Gbps_SG.xml</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>G-Core TH</t>
+  </si>
+  <si>
+    <t>G-Core TH_10Gbps_TH.xml</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>G-Core TR</t>
+  </si>
+  <si>
+    <t>G-Core TR_10Gbps_TR.xml</t>
+  </si>
+  <si>
+    <t>G-Core UK</t>
+  </si>
+  <si>
+    <t>G-Core UK_10Gbps_GB.xml</t>
+  </si>
+  <si>
+    <t>G-Core US LA</t>
+  </si>
+  <si>
+    <t>G-Core US MN</t>
+  </si>
+  <si>
+    <t>G-Core US NY</t>
+  </si>
+  <si>
+    <t>G-Core US ST</t>
+  </si>
+  <si>
+    <t>G-Core US LA_10Gbps_US.xml</t>
+  </si>
+  <si>
+    <t>G-Core US MN_10Gbps_US.xml</t>
+  </si>
+  <si>
+    <t>G-Core US NY_10Gbps_US.xml</t>
+  </si>
+  <si>
+    <t>G-Core US ST_10Gbps_US.xml</t>
+  </si>
+  <si>
+    <t>ZA</t>
+  </si>
+  <si>
+    <t>G-Core ZA</t>
+  </si>
+  <si>
+    <t>G-Core ZA_10Gbps_ZA.xml</t>
   </si>
 </sst>
 </file>
@@ -1160,6 +1340,25 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:pattFill prst="pct75">
@@ -1232,13 +1431,13 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$G$1:$G$2</c:f>
+              <c:f>Feuil1!$G$1:$G$3</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Yes</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>No</c:v>
                 </c:pt>
               </c:strCache>
@@ -1246,15 +1445,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$H$1:$H$2</c:f>
+              <c:f>Feuil1!$H$1:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.84552845528455289</c:v>
+                  <c:v>0.72972972972972971</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.15447154471544716</c:v>
+                <c:pt idx="2">
+                  <c:v>0.27027027027027029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2034,7 +2233,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2380,10 +2579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C18607A-68F6-4C8B-BF40-82CCB3747CF3}">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2413,98 +2612,99 @@
       </c>
       <c r="H1" s="1">
         <f>COUNTIF(E:E,"Yes")/SUM(COUNTIF(E:E,"Yes"),COUNTIF(E:E,"No"))</f>
-        <v>0.84552845528455289</v>
+        <v>0.72972972972972971</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>297</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>298</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>299</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1">
-        <f>COUNTIF(E:E,"No")/SUM(COUNTIF(E:E,"Yes"),COUNTIF(E:E,"No"))</f>
-        <v>0.15447154471544716</v>
-      </c>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>254</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>255</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>258</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1">
+        <f>COUNTIF(E:E,"No")/SUM(COUNTIF(E:E,"Yes"),COUNTIF(E:E,"No"))</f>
+        <v>0.27027027027027029</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>254</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>257</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>257</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>259</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>204</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>205</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -2515,13 +2715,13 @@
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>261</v>
+        <v>301</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>15</v>
@@ -2529,33 +2729,33 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>150</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>252</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>150</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>151</v>
+        <v>260</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>152</v>
+        <v>261</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
@@ -2563,33 +2763,33 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>15</v>
@@ -2597,16 +2797,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>216</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>217</v>
+        <v>152</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>14</v>
@@ -2614,16 +2814,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>268</v>
+        <v>215</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>15</v>
@@ -2631,33 +2831,33 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>155</v>
+        <v>216</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>14</v>
@@ -2665,16 +2865,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>15</v>
@@ -2682,33 +2882,33 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>304</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>218</v>
+        <v>305</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>173</v>
+        <v>245</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>174</v>
+        <v>246</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>14</v>
@@ -2716,33 +2916,33 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>271</v>
+        <v>153</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>272</v>
+        <v>155</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>274</v>
+        <v>154</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>15</v>
@@ -2750,16 +2950,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>14</v>
@@ -2767,16 +2967,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
@@ -2784,50 +2984,50 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>11</v>
+        <v>271</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>64</v>
+        <v>272</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>65</v>
+        <v>274</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>11</v>
+        <v>271</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>81</v>
+        <v>275</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>14</v>
@@ -2835,16 +3035,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>14</v>
@@ -2852,16 +3052,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>221</v>
+        <v>65</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>14</v>
@@ -2869,33 +3069,33 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>108</v>
+        <v>306</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>109</v>
+        <v>307</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>14</v>
@@ -2903,16 +3103,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>219</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>14</v>
@@ -2920,16 +3120,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>14</v>
@@ -2937,33 +3137,33 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>82</v>
+        <v>308</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>83</v>
+        <v>309</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>84</v>
+        <v>310</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>34</v>
+        <v>221</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>14</v>
@@ -2971,16 +3171,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>14</v>
@@ -2988,16 +3188,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>14</v>
@@ -3005,16 +3205,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>14</v>
@@ -3022,16 +3222,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>52</v>
+        <v>220</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>14</v>
@@ -3039,16 +3239,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>14</v>
@@ -3059,13 +3259,13 @@
         <v>31</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>14</v>
@@ -3076,13 +3276,13 @@
         <v>31</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>14</v>
@@ -3093,13 +3293,13 @@
         <v>31</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>14</v>
@@ -3110,13 +3310,13 @@
         <v>31</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>222</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>14</v>
@@ -3127,13 +3327,13 @@
         <v>31</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>14</v>
@@ -3144,13 +3344,13 @@
         <v>31</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>14</v>
@@ -3161,13 +3361,13 @@
         <v>31</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>14</v>
@@ -3178,13 +3378,13 @@
         <v>31</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>14</v>
@@ -3195,13 +3395,13 @@
         <v>31</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>14</v>
@@ -3212,13 +3412,13 @@
         <v>31</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>116</v>
+        <v>222</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>14</v>
@@ -3229,16 +3429,16 @@
         <v>31</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>118</v>
+        <v>304</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>119</v>
+        <v>311</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3246,13 +3446,13 @@
         <v>31</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>14</v>
@@ -3263,13 +3463,13 @@
         <v>31</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>14</v>
@@ -3280,13 +3480,13 @@
         <v>31</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>14</v>
@@ -3297,13 +3497,13 @@
         <v>31</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>14</v>
@@ -3314,13 +3514,13 @@
         <v>31</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>14</v>
@@ -3331,13 +3531,13 @@
         <v>31</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>14</v>
@@ -3348,13 +3548,13 @@
         <v>31</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>14</v>
@@ -3365,13 +3565,13 @@
         <v>31</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>14</v>
@@ -3382,16 +3582,16 @@
         <v>31</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>276</v>
+        <v>114</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>277</v>
+        <v>115</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -3399,13 +3599,13 @@
         <v>31</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>14</v>
@@ -3416,13 +3616,13 @@
         <v>31</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>14</v>
@@ -3433,13 +3633,13 @@
         <v>31</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>14</v>
@@ -3450,13 +3650,13 @@
         <v>31</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>14</v>
@@ -3467,13 +3667,13 @@
         <v>31</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>14</v>
@@ -3484,13 +3684,13 @@
         <v>31</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>14</v>
@@ -3501,16 +3701,16 @@
         <v>31</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>181</v>
+        <v>277</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -3518,13 +3718,13 @@
         <v>31</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>14</v>
@@ -3535,13 +3735,13 @@
         <v>31</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>14</v>
@@ -3552,16 +3752,16 @@
         <v>31</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>285</v>
+        <v>158</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>286</v>
+        <v>159</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3569,13 +3769,13 @@
         <v>31</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>14</v>
@@ -3586,16 +3786,16 @@
         <v>31</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>287</v>
+        <v>177</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>288</v>
+        <v>178</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3603,13 +3803,13 @@
         <v>31</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>14</v>
@@ -3620,13 +3820,13 @@
         <v>31</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>14</v>
@@ -3637,13 +3837,13 @@
         <v>31</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>14</v>
@@ -3654,13 +3854,13 @@
         <v>31</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>14</v>
@@ -3671,16 +3871,16 @@
         <v>31</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>198</v>
+        <v>285</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>199</v>
+        <v>286</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3688,13 +3888,13 @@
         <v>31</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>14</v>
@@ -3705,16 +3905,16 @@
         <v>31</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>202</v>
+        <v>287</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>203</v>
+        <v>288</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -3722,16 +3922,16 @@
         <v>31</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>289</v>
+        <v>190</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>290</v>
+        <v>191</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3739,13 +3939,13 @@
         <v>31</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>242</v>
+        <v>192</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>243</v>
+        <v>193</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>14</v>
@@ -3756,13 +3956,13 @@
         <v>31</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>247</v>
+        <v>194</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>14</v>
@@ -3773,30 +3973,30 @@
         <v>31</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>296</v>
+        <v>197</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>19</v>
+        <v>199</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>14</v>
@@ -3804,16 +4004,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>14</v>
@@ -3821,16 +4021,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>14</v>
@@ -3838,33 +4038,33 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>231</v>
+        <v>289</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>234</v>
+        <v>290</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>14</v>
@@ -3872,16 +4072,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>14</v>
@@ -3889,16 +4089,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>15</v>
@@ -3909,30 +4109,30 @@
         <v>17</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>293</v>
+        <v>18</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>294</v>
+        <v>19</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>14</v>
@@ -3940,33 +4140,33 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>61</v>
+        <v>344</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>63</v>
+        <v>345</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>227</v>
+        <v>17</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>229</v>
+        <v>6</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>14</v>
@@ -3974,16 +4174,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>227</v>
+        <v>17</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>250</v>
+      <c r="D93" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>14</v>
@@ -3991,16 +4191,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>239</v>
+        <v>17</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>241</v>
+        <v>6</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>14</v>
@@ -4008,16 +4208,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>206</v>
+        <v>17</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>14</v>
@@ -4025,67 +4225,67 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>137</v>
+        <v>292</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>138</v>
+        <v>291</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>139</v>
+        <v>293</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>140</v>
+        <v>294</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>98</v>
+        <v>312</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>99</v>
+        <v>313</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>100</v>
+        <v>314</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>278</v>
+        <v>162</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>15</v>
@@ -4093,33 +4293,33 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>263</v>
+        <v>162</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>262</v>
+        <v>163</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>281</v>
+        <v>164</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>14</v>
@@ -4127,33 +4327,33 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>10</v>
+        <v>227</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>8</v>
+        <v>318</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>10</v>
+        <v>227</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>101</v>
+        <v>228</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>102</v>
+        <v>62</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>14</v>
@@ -4161,16 +4361,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>10</v>
+        <v>227</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>175</v>
+        <v>249</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>176</v>
+      <c r="D104" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>14</v>
@@ -4178,50 +4378,50 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>10</v>
+        <v>319</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>182</v>
+        <v>320</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>183</v>
+      <c r="D105" s="3" t="s">
+        <v>321</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>22</v>
+        <v>322</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>35</v>
+        <v>323</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>36</v>
+      <c r="D106" s="3" t="s">
+        <v>324</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>22</v>
+        <v>239</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>23</v>
+        <v>240</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>25</v>
+        <v>68</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>14</v>
@@ -4229,16 +4429,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>14</v>
@@ -4246,16 +4446,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>211</v>
+        <v>137</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>212</v>
+        <v>138</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>14</v>
@@ -4263,16 +4463,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>14</v>
@@ -4280,16 +4480,16 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>14</v>
@@ -4297,50 +4497,50 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>87</v>
+        <v>278</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>213</v>
+        <v>279</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>214</v>
+        <v>280</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>141</v>
+        <v>263</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>143</v>
+        <v>281</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>14</v>
@@ -4348,50 +4548,50 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>28</v>
+        <v>325</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>29</v>
+        <v>326</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>30</v>
+        <v>327</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>28</v>
+        <v>328</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>78</v>
+        <v>329</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>14</v>
@@ -4399,33 +4599,33 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>236</v>
+        <v>331</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>237</v>
+        <v>6</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>238</v>
+        <v>332</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>169</v>
+        <v>101</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>14</v>
@@ -4433,16 +4633,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>14</v>
@@ -4450,16 +4650,16 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>14</v>
@@ -4467,33 +4667,33 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>57</v>
+        <v>333</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>58</v>
+        <v>334</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>59</v>
+        <v>335</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>14</v>
@@ -4501,18 +4701,443 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B146" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C149" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D149" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="E149" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/httpget/List File.xlsx
+++ b/httpget/List File.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valen\git\script-nsg\httpget\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://valentinslr-my.sharepoint.com/personal/hello_valentinslr_com/Documents/Documents/GitHub/script-nsg/httpget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32EA29B-9A5A-42B0-91A7-2476963FDAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{F32EA29B-9A5A-42B0-91A7-2476963FDAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50E96E3A-96E9-49D7-A62B-1633CB64BFB7}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{DC6502BA-425D-411E-B718-7BD70301C676}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="364">
   <si>
     <t>Country</t>
   </si>
@@ -1107,6 +1107,27 @@
   </si>
   <si>
     <t>G-Core ZA_10Gbps_ZA.xml</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>NOS Lisboa</t>
+  </si>
+  <si>
+    <t>NOS_10Gbps_Lisboa_PT.xml</t>
+  </si>
+  <si>
+    <t>NOS Porto</t>
+  </si>
+  <si>
+    <t>NOS_10Gbps_Porto_PT.xml</t>
+  </si>
+  <si>
+    <t>DataPacket</t>
+  </si>
+  <si>
+    <t>DataPacket_10Gbps_Lisboa_PT.xml</t>
   </si>
 </sst>
 </file>
@@ -1358,6 +1379,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0394-47C0-AC6D-34B828EA7B25}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1450,10 +1476,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.72972972972972971</c:v>
+                  <c:v>0.71523178807947019</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27027027027027029</c:v>
+                  <c:v>0.28476821192052981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2579,10 +2605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C18607A-68F6-4C8B-BF40-82CCB3747CF3}">
-  <dimension ref="A1:H149"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="E146" sqref="E146"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2612,7 +2638,7 @@
       </c>
       <c r="H1" s="1">
         <f>COUNTIF(E:E,"Yes")/SUM(COUNTIF(E:E,"Yes"),COUNTIF(E:E,"No"))</f>
-        <v>0.72972972972972971</v>
+        <v>0.71523178807947019</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2654,7 +2680,7 @@
       </c>
       <c r="H3" s="1">
         <f>COUNTIF(E:E,"No")/SUM(COUNTIF(E:E,"Yes"),COUNTIF(E:E,"No"))</f>
-        <v>0.27027027027027029</v>
+        <v>0.28476821192052981</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4684,53 +4710,53 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>22</v>
+        <v>357</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>35</v>
+        <v>362</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>36</v>
+        <v>363</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>22</v>
+        <v>357</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>23</v>
+        <v>358</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>25</v>
+        <v>359</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>22</v>
+        <v>357</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>209</v>
+        <v>361</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -4738,13 +4764,13 @@
         <v>22</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>211</v>
+        <v>35</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>212</v>
+        <v>36</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>14</v>
@@ -4752,33 +4778,33 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>336</v>
+        <v>23</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>337</v>
+        <v>25</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>88</v>
+        <v>210</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>89</v>
+        <v>209</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>14</v>
@@ -4786,16 +4812,16 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>14</v>
@@ -4806,30 +4832,30 @@
         <v>87</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>213</v>
+        <v>336</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>214</v>
+        <v>337</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>14</v>
@@ -4837,33 +4863,33 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>338</v>
+        <v>87</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>339</v>
+        <v>165</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>340</v>
+        <v>166</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>14</v>
@@ -4871,67 +4897,67 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>341</v>
+        <v>141</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>342</v>
+        <v>142</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>343</v>
+        <v>143</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>28</v>
+        <v>338</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>29</v>
+        <v>339</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>30</v>
+        <v>340</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>346</v>
+        <v>145</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>350</v>
+        <v>146</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>28</v>
+        <v>341</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>15</v>
@@ -4942,16 +4968,16 @@
         <v>28</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>348</v>
+        <v>29</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>352</v>
+        <v>30</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -4959,13 +4985,13 @@
         <v>28</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>15</v>
@@ -4976,16 +5002,16 @@
         <v>28</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>78</v>
+        <v>347</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -4993,16 +5019,16 @@
         <v>28</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>85</v>
+        <v>348</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>86</v>
+        <v>352</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -5010,16 +5036,16 @@
         <v>28</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>236</v>
+        <v>349</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>237</v>
+        <v>6</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>238</v>
+        <v>353</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -5027,13 +5053,13 @@
         <v>28</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>14</v>
@@ -5044,13 +5070,13 @@
         <v>28</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>171</v>
+        <v>85</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>14</v>
@@ -5058,33 +5084,33 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>354</v>
+        <v>28</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>355</v>
+        <v>236</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>6</v>
+        <v>237</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>356</v>
+        <v>238</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>14</v>
@@ -5092,16 +5118,16 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>58</v>
+        <v>171</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>59</v>
+        <v>172</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>14</v>
@@ -5109,19 +5135,19 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>57</v>
+        <v>354</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>72</v>
+        <v>355</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>73</v>
+        <v>356</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -5129,15 +5155,66 @@
         <v>57</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>94</v>
+        <v>225</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D149" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="E152" s="2" t="s">
         <v>14</v>
       </c>
     </row>
